--- a/2023-summmer/2023-06-26/data/to-excel-test.xlsx
+++ b/2023-summmer/2023-06-26/data/to-excel-test.xlsx
@@ -477,10 +477,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.3082248199686066</v>
+        <v>0.02358420229071686</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.7822236419088443</v>
+        <v>-0.5703455449536885</v>
       </c>
     </row>
     <row r="3">
@@ -500,10 +500,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-0.1495880691181877</v>
+        <v>0.4381555046719096</v>
       </c>
       <c r="E3" t="n">
-        <v>1.189076460504961</v>
+        <v>-0.2153344026675606</v>
       </c>
     </row>
     <row r="4">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.220761029097791</v>
+        <v>-0.9090169073210134</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1447638234195026</v>
+        <v>-2.011636662030635</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.117211077305675</v>
+        <v>-0.727136566676863</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05748971676629107</v>
+        <v>0.9332370377927517</v>
       </c>
     </row>
     <row r="6">
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.2617234965454293</v>
+        <v>-0.9560292399977294</v>
       </c>
       <c r="E6" t="n">
-        <v>1.436341339514754</v>
+        <v>0.5776997142436597</v>
       </c>
     </row>
     <row r="7">
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.5575181950863198</v>
+        <v>0.2955250785125503</v>
       </c>
       <c r="E7" t="n">
-        <v>0.573800425307658</v>
+        <v>-1.911592760324373</v>
       </c>
     </row>
     <row r="8">
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-0.9050129334142761</v>
+        <v>-0.1136329374223861</v>
       </c>
       <c r="E8" t="n">
-        <v>0.287883116465352</v>
+        <v>-0.3765859574038516</v>
       </c>
     </row>
     <row r="9">
@@ -638,10 +638,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-0.2974005743931564</v>
+        <v>-0.1103320952781345</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.5078571558640442</v>
+        <v>-0.4209404356862538</v>
       </c>
     </row>
     <row r="10">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.382219944668623</v>
+        <v>1.785561257281473</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6255870039012575</v>
+        <v>-0.3275109399145543</v>
       </c>
     </row>
     <row r="11">
@@ -684,10 +684,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.09315298124821049</v>
+        <v>0.4194860896920896</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.159029830470061</v>
+        <v>0.1042600249225114</v>
       </c>
     </row>
     <row r="12">
@@ -707,10 +707,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.445046943783084</v>
+        <v>0.6051511165444587</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5419509145423328</v>
+        <v>-0.08972266514928688</v>
       </c>
     </row>
     <row r="13">
@@ -730,10 +730,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-0.6094277262586537</v>
+        <v>0.2845244134106181</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.4339878139390232</v>
+        <v>-0.4221092374982852</v>
       </c>
     </row>
   </sheetData>
